--- a/data/log.xlsx
+++ b/data/log.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2773cdcaa925b51f/Documents/courir/data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Salon\OneDrive\Documents\courir\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="8_{F82D28A8-E29B-4A35-99E7-082E5D514AD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2E367C53-FC1D-43F7-BC97-4F8A0DC7B572}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E50A13AD-4BDE-4AF8-BC07-9BFD934DB3E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{195135E2-5FB1-40AB-AAAB-E66BFC0573DE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{195135E2-5FB1-40AB-AAAB-E66BFC0573DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,14 +62,14 @@
     <t>Chez le beau-père</t>
   </si>
   <si>
-    <t>Coucou la garderi</t>
+    <t>Coucou la garderie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,10 +116,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -442,16 +438,16 @@
   <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.296875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.3984375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -468,7 +464,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1">
         <v>46024</v>
       </c>
@@ -485,7 +481,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1">
         <v>46035</v>
       </c>
@@ -502,7 +498,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1">
         <v>46039</v>
       </c>
@@ -519,7 +515,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5">
       <c r="A5" s="1">
         <v>46042</v>
       </c>
